--- a/SpaOnline/ModeloDominio/Spa- Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Spa- Muestreo Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D93279-DFF3-4B71-9B44-62981700008D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B582B5F-A9A6-4453-90B5-B76DCB5AEE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -283,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -307,7 +307,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -735,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +762,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -777,7 +776,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -791,7 +790,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -806,7 +805,7 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -836,7 +835,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,7 +890,7 @@
         <f>Administrador!B2</f>
         <v xml:space="preserve">Jhoana Andrea Gómez Gómez </v>
       </c>
-      <c r="F2" s="13" t="str">
+      <c r="F2" s="1" t="str">
         <f>Trabajador!B2</f>
         <v xml:space="preserve">Jhonatan Arley Gómez </v>
       </c>
@@ -918,7 +917,7 @@
         <f>Administrador!B3</f>
         <v>Nathaly perez Zapata</v>
       </c>
-      <c r="F3" s="13" t="str">
+      <c r="F3" s="1" t="str">
         <f>Trabajador!B3</f>
         <v>Cristian David Ospina Ospina</v>
       </c>
@@ -945,7 +944,7 @@
         <f>Administrador!B4</f>
         <v xml:space="preserve">Camilo Saldarriaga </v>
       </c>
-      <c r="F4" s="13" t="str">
+      <c r="F4" s="1" t="str">
         <f>Trabajador!B4</f>
         <v>Luis Ospina</v>
       </c>
@@ -1170,7 +1169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121986A6-D44D-4CDF-A74A-1517A7A7562F}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
